--- a/biology/Zoologie/Caestocorbula/Caestocorbula.xlsx
+++ b/biology/Zoologie/Caestocorbula/Caestocorbula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caestocorbula est un genre fossile de mollusques bivalves de la famille des Corbulidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (21 octobre 2019)[2] et Paleobiology Database                   (21 octobre 2019)[3], le genre appartient à la sous-famille éteinte des Caestocorbulinae H. Vokes, 1945. Le nom du genre a été créé pour des espèces de l'Éocène trouvées en Belgique[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (21 octobre 2019) et Paleobiology Database                   (21 octobre 2019), le genre appartient à la sous-famille éteinte des Caestocorbulinae H. Vokes, 1945. Le nom du genre a été créé pour des espèces de l'Éocène trouvées en Belgique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (21 octobre 2019)[5], il y a deux espèces :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (21 octobre 2019), il y a deux espèces :
 Caestocorbula anceps P. A. Maxwell, 1992 †
 Caestocorbula praeviator P. A. Maxwell, 1992 †
 Selon Paleobiology Database, il y a un sous-genre :
@@ -553,7 +569,7 @@
 et 10 espèces non classées:
 Caestocorbula angustata - Caestocorbula clarendonensis - Caestocorbula crassiplica - Caestocorbula fossata - Caestocorbula henckeliusiana - Caestocorbula murchisonii - Caestocorbula subtumida - Caestocorbula twiningi - Caestocorbula wailesiana
 Autres noms
-†Caestocorbula elegans Sowerby J. de C.[6], 1827[7],[8] - Albien (Crétacé inférieur) - Angleterre
+†Caestocorbula elegans Sowerby J. de C., 1827, - Albien (Crétacé inférieur) - Angleterre
 †Caestocorbula gigantica Roy &amp; Mukherjee, 2017</t>
         </is>
       </c>
